--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H2">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I2">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J2">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N2">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O2">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P2">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q2">
-        <v>0.043657925219</v>
+        <v>0.0122532246135</v>
       </c>
       <c r="R2">
-        <v>0.174631700876</v>
+        <v>0.049012898454</v>
       </c>
       <c r="S2">
-        <v>0.01925216971287867</v>
+        <v>0.009216613266125689</v>
       </c>
       <c r="T2">
-        <v>0.01144528341121856</v>
+        <v>0.005737088880567876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H3">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I3">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J3">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.603579</v>
       </c>
       <c r="O3">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P3">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q3">
-        <v>0.02778307522766666</v>
+        <v>0.011736594701</v>
       </c>
       <c r="R3">
-        <v>0.166698451366</v>
+        <v>0.070419568206</v>
       </c>
       <c r="S3">
-        <v>0.01225171550744998</v>
+        <v>0.008828015304738547</v>
       </c>
       <c r="T3">
-        <v>0.01092534179375511</v>
+        <v>0.008242795967437069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H4">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I4">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J4">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N4">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O4">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P4">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q4">
-        <v>0.01096404570566666</v>
+        <v>0.00255894197</v>
       </c>
       <c r="R4">
-        <v>0.06578427423399999</v>
+        <v>0.01535365182</v>
       </c>
       <c r="S4">
-        <v>0.004834899221765814</v>
+        <v>0.001924781374036289</v>
       </c>
       <c r="T4">
-        <v>0.004311471850944609</v>
+        <v>0.001797185392235133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H5">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I5">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J5">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N5">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O5">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P5">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q5">
-        <v>0.071435005766</v>
+        <v>0.0338317518045</v>
       </c>
       <c r="R5">
-        <v>0.285740023064</v>
+        <v>0.135327007218</v>
       </c>
       <c r="S5">
-        <v>0.03150124170007453</v>
+        <v>0.02544751951695107</v>
       </c>
       <c r="T5">
-        <v>0.01872727305231821</v>
+        <v>0.01584038269190658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H6">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I6">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J6">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N6">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O6">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P6">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q6">
-        <v>0.02555657113</v>
+        <v>0.003134676467</v>
       </c>
       <c r="R6">
-        <v>0.15333942678</v>
+        <v>0.018808058802</v>
       </c>
       <c r="S6">
-        <v>0.01126987694000373</v>
+        <v>0.002357836538712708</v>
       </c>
       <c r="T6">
-        <v>0.01004979730946486</v>
+        <v>0.002201532829552847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H7">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I7">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J7">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N7">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O7">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P7">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q7">
-        <v>0.018280934624</v>
+        <v>0.002895725755</v>
       </c>
       <c r="R7">
-        <v>0.109685607744</v>
+        <v>0.01737435453</v>
       </c>
       <c r="S7">
-        <v>0.008061483777019244</v>
+        <v>0.002178102928039892</v>
       </c>
       <c r="T7">
-        <v>0.007188745574053786</v>
+        <v>0.002033713967654003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J8">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N8">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O8">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P8">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q8">
-        <v>0.2648879257786667</v>
+        <v>0.175989870628</v>
       </c>
       <c r="R8">
-        <v>1.589327554672</v>
+        <v>1.055939223768</v>
       </c>
       <c r="S8">
-        <v>0.1168096577288541</v>
+        <v>0.1323758135100776</v>
       </c>
       <c r="T8">
-        <v>0.1041638156487769</v>
+        <v>0.1236004678425719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J9">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.603579</v>
       </c>
       <c r="O9">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P9">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q9">
-        <v>0.1685696498835555</v>
+        <v>0.1685696498835556</v>
       </c>
       <c r="R9">
         <v>1.517126848952</v>
       </c>
       <c r="S9">
-        <v>0.07433544978876769</v>
+        <v>0.1267944823007011</v>
       </c>
       <c r="T9">
-        <v>0.09943181375387372</v>
+        <v>0.1775836942943162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J10">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N10">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O10">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P10">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q10">
-        <v>0.06652270602755554</v>
+        <v>0.03675341638222222</v>
       </c>
       <c r="R10">
-        <v>0.5987043542479999</v>
+        <v>0.33078074744</v>
       </c>
       <c r="S10">
-        <v>0.02933502725514474</v>
+        <v>0.02764513307220544</v>
       </c>
       <c r="T10">
-        <v>0.03923881505778021</v>
+        <v>0.03871875787605211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J11">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N11">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O11">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P11">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q11">
-        <v>0.4334212038346666</v>
+        <v>0.4859166310093333</v>
       </c>
       <c r="R11">
-        <v>2.600527223008</v>
+        <v>2.915499786056</v>
       </c>
       <c r="S11">
-        <v>0.1911290683542086</v>
+        <v>0.3654960884873951</v>
       </c>
       <c r="T11">
-        <v>0.1704373887250287</v>
+        <v>0.3412669303689146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J12">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N12">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O12">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P12">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q12">
-        <v>0.1550606695733333</v>
+        <v>0.04502254086488889</v>
       </c>
       <c r="R12">
-        <v>1.39554602616</v>
+        <v>0.405202867784</v>
       </c>
       <c r="S12">
-        <v>0.06837829125968696</v>
+        <v>0.03386499150214251</v>
       </c>
       <c r="T12">
-        <v>0.09146346111661884</v>
+        <v>0.04743006311531615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J13">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N13">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O13">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P13">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q13">
-        <v>0.1109168342186667</v>
+        <v>0.04159055408444445</v>
       </c>
       <c r="R13">
-        <v>0.998251507968</v>
+        <v>0.37431498676</v>
       </c>
       <c r="S13">
-        <v>0.04891184603210767</v>
+        <v>0.03128352450977525</v>
       </c>
       <c r="T13">
-        <v>0.06542495644867345</v>
+        <v>0.04381455527234688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H14">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I14">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J14">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N14">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O14">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P14">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q14">
-        <v>0.01192752738233333</v>
+        <v>0.002194274226</v>
       </c>
       <c r="R14">
-        <v>0.07156516429400001</v>
+        <v>0.013165645356</v>
       </c>
       <c r="S14">
-        <v>0.005259773117201482</v>
+        <v>0.001650486102946951</v>
       </c>
       <c r="T14">
-        <v>0.004690348794671895</v>
+        <v>0.001541073471675973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H15">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I15">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J15">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.603579</v>
       </c>
       <c r="O15">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P15">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q15">
-        <v>0.007590452108777778</v>
+        <v>0.002101757542666666</v>
       </c>
       <c r="R15">
-        <v>0.068314068979</v>
+        <v>0.018915817884</v>
       </c>
       <c r="S15">
-        <v>0.003347219810896336</v>
+        <v>0.001580897034122693</v>
       </c>
       <c r="T15">
-        <v>0.004477273464760968</v>
+        <v>0.002214146313974761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H16">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I16">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J16">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N16">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O16">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P16">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q16">
-        <v>0.002995423046777777</v>
+        <v>0.0004582483866666666</v>
       </c>
       <c r="R16">
-        <v>0.026958807421</v>
+        <v>0.004124235479999999</v>
       </c>
       <c r="S16">
-        <v>0.001320914646519585</v>
+        <v>0.000344684627349396</v>
       </c>
       <c r="T16">
-        <v>0.001766868156320019</v>
+        <v>0.0004827526275630921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H17">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I17">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J17">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N17">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O17">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P17">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q17">
-        <v>0.01951634171933333</v>
+        <v>0.006058498341999999</v>
       </c>
       <c r="R17">
-        <v>0.117098050316</v>
+        <v>0.03635099005199999</v>
       </c>
       <c r="S17">
-        <v>0.008606270707331288</v>
+        <v>0.004557072766801092</v>
       </c>
       <c r="T17">
-        <v>0.007674553738209287</v>
+        <v>0.004254979146370861</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H18">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I18">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J18">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N18">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O18">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P18">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q18">
-        <v>0.006982161896666666</v>
+        <v>0.0005613493586666666</v>
       </c>
       <c r="R18">
-        <v>0.06283945706999999</v>
+        <v>0.005052144228</v>
       </c>
       <c r="S18">
-        <v>0.003078977416428414</v>
+        <v>0.0004222349715452187</v>
       </c>
       <c r="T18">
-        <v>0.004118469853786412</v>
+        <v>0.0005913667909415079</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H19">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I19">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J19">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N19">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O19">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P19">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q19">
-        <v>0.004994427637333334</v>
+        <v>0.0005185587133333333</v>
       </c>
       <c r="R19">
-        <v>0.044949848736</v>
+        <v>0.00466702842</v>
       </c>
       <c r="S19">
-        <v>0.002202431013620107</v>
+        <v>0.0003900487640867539</v>
       </c>
       <c r="T19">
-        <v>0.00294599294111112</v>
+        <v>0.0005462879710900082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H20">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I20">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J20">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N20">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O20">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P20">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q20">
-        <v>0.0650727939575</v>
+        <v>0.04010242628550001</v>
       </c>
       <c r="R20">
-        <v>0.26029117583</v>
+        <v>0.160409705142</v>
       </c>
       <c r="S20">
-        <v>0.02869564842297541</v>
+        <v>0.03016418663374133</v>
       </c>
       <c r="T20">
-        <v>0.0170593670099396</v>
+        <v>0.01877637856020805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H21">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I21">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J21">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.603579</v>
       </c>
       <c r="O21">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P21">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q21">
-        <v>0.04141109135916667</v>
+        <v>0.03841159683966667</v>
       </c>
       <c r="R21">
-        <v>0.248466548155</v>
+        <v>0.230469581038</v>
       </c>
       <c r="S21">
-        <v>0.01826136617447945</v>
+        <v>0.02889238091787661</v>
       </c>
       <c r="T21">
-        <v>0.01628438621152997</v>
+        <v>0.0269770715952086</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H22">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I22">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J22">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N22">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O22">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P22">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q22">
-        <v>0.01634207497416667</v>
+        <v>0.008374920476666667</v>
       </c>
       <c r="R22">
-        <v>0.098052449845</v>
+        <v>0.05024952286000001</v>
       </c>
       <c r="S22">
-        <v>0.007206489985152126</v>
+        <v>0.006299435911992612</v>
       </c>
       <c r="T22">
-        <v>0.006426313618952734</v>
+        <v>0.005881839024976495</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H23">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I23">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J23">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N23">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O23">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P23">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q23">
-        <v>0.106474950155</v>
+        <v>0.1107247582285</v>
       </c>
       <c r="R23">
-        <v>0.42589980062</v>
+        <v>0.442899032914</v>
       </c>
       <c r="S23">
-        <v>0.04695307439076946</v>
+        <v>0.08328479300485589</v>
       </c>
       <c r="T23">
-        <v>0.02791328205832816</v>
+        <v>0.05184249854821237</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H24">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I24">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J24">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N24">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O24">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P24">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q24">
-        <v>0.038092453525</v>
+        <v>0.01025918775766667</v>
       </c>
       <c r="R24">
-        <v>0.22855472115</v>
+        <v>0.061555126546</v>
       </c>
       <c r="S24">
-        <v>0.0167979210272705</v>
+        <v>0.007716741426808488</v>
       </c>
       <c r="T24">
-        <v>0.01497937399344935</v>
+        <v>0.007205189719201035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H25">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I25">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J25">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N25">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O25">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P25">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q25">
-        <v>0.02724800792</v>
+        <v>0.009477148448333335</v>
       </c>
       <c r="R25">
-        <v>0.16348804752</v>
+        <v>0.05686289069000001</v>
       </c>
       <c r="S25">
-        <v>0.01201576277805805</v>
+        <v>0.007128508198382053</v>
       </c>
       <c r="T25">
-        <v>0.01071493336448587</v>
+        <v>0.006655951151322328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H26">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I26">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J26">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N26">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O26">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P26">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q26">
-        <v>0.05363957538466666</v>
+        <v>0.007406140559000001</v>
       </c>
       <c r="R26">
-        <v>0.321837452308</v>
+        <v>0.04443684335400001</v>
       </c>
       <c r="S26">
-        <v>0.02365385444801047</v>
+        <v>0.005570740395280598</v>
       </c>
       <c r="T26">
-        <v>0.02109308238728741</v>
+        <v>0.005201449576238317</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H27">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I27">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J27">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.603579</v>
       </c>
       <c r="O27">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P27">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q27">
-        <v>0.03413520799755555</v>
+        <v>0.007093877145111112</v>
       </c>
       <c r="R27">
-        <v>0.3072168719779999</v>
+        <v>0.063844894306</v>
       </c>
       <c r="S27">
-        <v>0.01505286415368517</v>
+        <v>0.005335862539552466</v>
       </c>
       <c r="T27">
-        <v>0.02013485610492326</v>
+        <v>0.007473213067530616</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H28">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I28">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J28">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N28">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O28">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P28">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q28">
-        <v>0.01347079031355555</v>
+        <v>0.001546685424444445</v>
       </c>
       <c r="R28">
-        <v>0.121237112822</v>
+        <v>0.01392016882</v>
       </c>
       <c r="S28">
-        <v>0.005940317593707077</v>
+        <v>0.001163383668471418</v>
       </c>
       <c r="T28">
-        <v>0.007945826039860611</v>
+        <v>0.001629392430806795</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H29">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I29">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J29">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N29">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O29">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P29">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q29">
-        <v>0.08776741811866666</v>
+        <v>0.02044871591966667</v>
       </c>
       <c r="R29">
-        <v>0.5266045087119999</v>
+        <v>0.122692295518</v>
       </c>
       <c r="S29">
-        <v>0.03870347068500605</v>
+        <v>0.01538108639686493</v>
       </c>
       <c r="T29">
-        <v>0.03451342349413421</v>
+        <v>0.01436145640332397</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H30">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I30">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J30">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N30">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O30">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P30">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q30">
-        <v>0.03139965119333333</v>
+        <v>0.001894673055777778</v>
       </c>
       <c r="R30">
-        <v>0.28259686074</v>
+        <v>0.017052057502</v>
       </c>
       <c r="S30">
-        <v>0.01384654471477637</v>
+        <v>0.001425132515861423</v>
       </c>
       <c r="T30">
-        <v>0.0185212716022654</v>
+        <v>0.001995988251487385</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H31">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I31">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J31">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N31">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O31">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P31">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q31">
-        <v>0.02246056279466667</v>
+        <v>0.001750245558888889</v>
       </c>
       <c r="R31">
-        <v>0.202145065152</v>
+        <v>0.01575221003</v>
       </c>
       <c r="S31">
-        <v>0.009904606428284952</v>
+        <v>0.001316497244265007</v>
       </c>
       <c r="T31">
-        <v>0.01324849697528111</v>
+        <v>0.00184383768065256</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H32">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I32">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J32">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N32">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O32">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P32">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q32">
-        <v>0.061642870383</v>
+        <v>0.0073497769535</v>
       </c>
       <c r="R32">
-        <v>0.369857222298</v>
+        <v>0.044098661721</v>
       </c>
       <c r="S32">
-        <v>0.02718312875037907</v>
+        <v>0.005528344897722702</v>
       </c>
       <c r="T32">
-        <v>0.02424027659154778</v>
+        <v>0.005161864525211033</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H33">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I33">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J33">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.603579</v>
       </c>
       <c r="O33">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P33">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q33">
-        <v>0.039228353077</v>
+        <v>0.007039889985444444</v>
       </c>
       <c r="R33">
-        <v>0.353055177693</v>
+        <v>0.06335900986899999</v>
       </c>
       <c r="S33">
-        <v>0.01729882735394976</v>
+        <v>0.005295254553681053</v>
       </c>
       <c r="T33">
-        <v>0.02313907811826079</v>
+        <v>0.007416339014196064</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H34">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I34">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J34">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N34">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O34">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P34">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q34">
-        <v>0.015480700123</v>
+        <v>0.001534914547777778</v>
       </c>
       <c r="R34">
-        <v>0.139326301107</v>
+        <v>0.01381423093</v>
       </c>
       <c r="S34">
-        <v>0.006826642918717343</v>
+        <v>0.001154529867005933</v>
       </c>
       <c r="T34">
-        <v>0.009131383333079264</v>
+        <v>0.001616992121706115</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H35">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I35">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J35">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N35">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O35">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P35">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q35">
-        <v>0.100862759262</v>
+        <v>0.02029309325116666</v>
       </c>
       <c r="R35">
-        <v>0.605176555572</v>
+        <v>0.121758559507</v>
       </c>
       <c r="S35">
-        <v>0.04447822358209919</v>
+        <v>0.01526403035682248</v>
       </c>
       <c r="T35">
-        <v>0.03966300023192704</v>
+        <v>0.01425216014346042</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H36">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I36">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J36">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N36">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O36">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P36">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q36">
-        <v>0.03608463741</v>
+        <v>0.001880253858111111</v>
       </c>
       <c r="R36">
-        <v>0.32476173669</v>
+        <v>0.016922284723</v>
       </c>
       <c r="S36">
-        <v>0.01591251897473755</v>
+        <v>0.00141428670402875</v>
       </c>
       <c r="T36">
-        <v>0.02128473867511544</v>
+        <v>0.001980798005840108</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H37">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I37">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J37">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N37">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O37">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P37">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q37">
-        <v>0.025811791968</v>
+        <v>0.001736925510555556</v>
       </c>
       <c r="R37">
-        <v>0.232306127712</v>
+        <v>0.015632329595</v>
       </c>
       <c r="S37">
-        <v>0.01138242362798286</v>
+        <v>0.00130647818903287</v>
       </c>
       <c r="T37">
-        <v>0.01522523949826558</v>
+        <v>0.001829805359930257</v>
       </c>
     </row>
   </sheetData>
